--- a/thesis/main/sets.xlsx
+++ b/thesis/main/sets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/storage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B0E8E9-F0FB-8046-AAEB-5B7213F37925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3890FE-0D84-E54A-B9BC-68142F9AECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_th" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>th_names</t>
   </si>
@@ -233,6 +233,87 @@
   </si>
   <si>
     <t>needs</t>
+  </si>
+  <si>
+    <t>BEV battery charge</t>
+  </si>
+  <si>
+    <t>BEV battery discharge</t>
+  </si>
+  <si>
+    <t>Transport urban</t>
+  </si>
+  <si>
+    <t>Transport motorway</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>BEV charging home</t>
+  </si>
+  <si>
+    <t>BEV charging street</t>
+  </si>
+  <si>
+    <t>BEV discharging</t>
+  </si>
+  <si>
+    <t>BEV urban</t>
+  </si>
+  <si>
+    <t>ICEV urban</t>
+  </si>
+  <si>
+    <t>BEV motorway</t>
+  </si>
+  <si>
+    <t>ICEV motorway</t>
+  </si>
+  <si>
+    <t>ICEV fuel</t>
+  </si>
+  <si>
+    <t>BEV home</t>
+  </si>
+  <si>
+    <t>BEV street</t>
+  </si>
+  <si>
+    <t>BEV discharge</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>ICEV</t>
+  </si>
+  <si>
+    <t>Fuel supply</t>
+  </si>
+  <si>
+    <t>t_BEV</t>
+  </si>
+  <si>
+    <t>BEV charge home</t>
+  </si>
+  <si>
+    <t>BEV charge street</t>
+  </si>
+  <si>
+    <t>BEV tr urban</t>
+  </si>
+  <si>
+    <t>ICEV tr urban</t>
+  </si>
+  <si>
+    <t>BEV tr motorway</t>
+  </si>
+  <si>
+    <t>ICEV tr motorway</t>
+  </si>
+  <si>
+    <t>Fuel ICEV</t>
   </si>
 </sst>
 </file>
@@ -662,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -705,6 +786,31 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -712,13 +818,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -839,6 +949,70 @@
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -848,115 +1022,223 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -967,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1141,6 +1423,94 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/main/sets.xlsx
+++ b/thesis/main/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32738BBE-B3F0-F845-AC5F-10BE8D1650F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A662B-D813-004C-BE59-BA2F4E547287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
   <si>
     <t>days_names</t>
   </si>
@@ -34,6 +34,9 @@
     <t>th_names</t>
   </si>
   <si>
+    <t>h_peak</t>
+  </si>
+  <si>
     <t>days</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>d2</t>
   </si>
   <si>
+    <t>peak</t>
+  </si>
+  <si>
     <t>d1.h1</t>
   </si>
   <si>
@@ -91,24 +97,21 @@
     <t>d2.h3</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
     <t>Hot water</t>
   </si>
   <si>
-    <t>Cold </t>
-  </si>
-  <si>
-    <t>Heat </t>
-  </si>
-  <si>
     <t>Cooking</t>
   </si>
   <si>
-    <t>Natural Gas </t>
-  </si>
-  <si>
     <t>BEV battery charge</t>
   </si>
   <si>
@@ -124,6 +127,15 @@
     <t>Fuel</t>
   </si>
   <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
     <t>EE PV</t>
   </si>
   <si>
@@ -193,16 +205,10 @@
     <t>PV sys</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>National Grid EE</t>
   </si>
   <si>
     <t>Storage EE</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>HP</t>
@@ -693,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,12 +714,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -723,68 +734,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -797,69 +840,69 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -872,193 +915,193 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1071,218 +1114,218 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1295,262 +1338,262 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1563,19 +1606,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/main/sets.xlsx
+++ b/thesis/main/sets.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A662B-D813-004C-BE59-BA2F4E547287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18C5AB-76D4-C14E-96C7-562022AE1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
     <sheet name="_set_th" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_needs" sheetId="3" r:id="rId3"/>
-    <sheet name="_set_f" sheetId="4" r:id="rId4"/>
-    <sheet name="_set_t" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_a" sheetId="6" r:id="rId6"/>
-    <sheet name="_set_s" sheetId="7" r:id="rId7"/>
+    <sheet name="_set_th2" sheetId="3" r:id="rId3"/>
+    <sheet name="_set_needs" sheetId="4" r:id="rId4"/>
+    <sheet name="_set_f" sheetId="5" r:id="rId5"/>
+    <sheet name="_set_t" sheetId="6" r:id="rId6"/>
+    <sheet name="_set_a" sheetId="7" r:id="rId7"/>
+    <sheet name="_set_s" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>days_names</t>
   </si>
@@ -40,6 +41,9 @@
     <t>days</t>
   </si>
   <si>
+    <t>th2_names</t>
+  </si>
+  <si>
     <t>n_names</t>
   </si>
   <si>
@@ -82,6 +86,9 @@
     <t>d1.h1</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>d1.h2</t>
   </si>
   <si>
@@ -97,9 +104,6 @@
     <t>d2.h3</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -109,9 +113,18 @@
     <t>Hot water</t>
   </si>
   <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
     <t>Cooking</t>
   </si>
   <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
     <t>BEV battery charge</t>
   </si>
   <si>
@@ -125,15 +138,6 @@
   </si>
   <si>
     <t>Fuel</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
   </si>
   <si>
     <t>EE PV</t>
@@ -702,7 +706,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,17 +718,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +741,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,68 +759,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -824,10 +828,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -850,59 +854,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -912,196 +891,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1111,221 +966,196 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A2" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1335,265 +1165,221 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1603,22 +1389,290 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/main/sets.xlsx
+++ b/thesis/main/sets.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18C5AB-76D4-C14E-96C7-562022AE1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE15B70-3B99-6646-BC79-039567F64484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
     <sheet name="_set_th" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_th2" sheetId="3" r:id="rId3"/>
-    <sheet name="_set_needs" sheetId="4" r:id="rId4"/>
-    <sheet name="_set_f" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_t" sheetId="6" r:id="rId6"/>
-    <sheet name="_set_a" sheetId="7" r:id="rId7"/>
-    <sheet name="_set_s" sheetId="8" r:id="rId8"/>
+    <sheet name="_set_needs" sheetId="4" r:id="rId3"/>
+    <sheet name="_set_f" sheetId="5" r:id="rId4"/>
+    <sheet name="_set_t" sheetId="6" r:id="rId5"/>
+    <sheet name="_set_a" sheetId="7" r:id="rId6"/>
+    <sheet name="_set_s" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="98">
   <si>
     <t>days_names</t>
   </si>
@@ -39,9 +38,6 @@
   </si>
   <si>
     <t>days</t>
-  </si>
-  <si>
-    <t>th2_names</t>
   </si>
   <si>
     <t>n_names</t>
@@ -718,17 +714,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -759,68 +755,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -828,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -840,11 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,34 +850,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -890,81 +911,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -976,186 +922,186 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1175,211 +1121,211 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -1399,255 +1345,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1655,11 +1601,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1667,12 +1613,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
